--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/81_Zonguldak_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/81_Zonguldak_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF0F2BA-7CF4-4B41-9076-C6D32B71B8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD548B1-1BA3-4F95-A260-5EEB31682EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{5455EB10-65D5-47A5-A933-CEFF5A3D87EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{A862CB68-2032-4D5C-BDFF-3262C5D00C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -987,14 +987,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A5231AAA-D6C2-4A21-9A0A-9121CF454F18}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9C75B1F3-53B1-4DF3-8C71-C9BCBECED121}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{40A3BD5A-687B-4CEE-81B0-A4EFE6EF1805}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{2210AD64-79E1-46E5-8563-54494284ABF8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B7FE7370-FCE2-4236-B5F6-ABCD32FD5588}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BD2057C5-A55E-4B8A-9D0C-48DA74D0961C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{449435B6-30E2-4332-A406-749AD18618D8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{FEAA9E7B-636C-45EE-8E35-8246D68587CD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8CBFDC65-3CEC-43D0-991D-05BA836080A1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{69E67040-8929-4554-A007-5E3973E36AB1}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{34EB3ED0-7307-4C2C-89EE-59979BE4A37A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{55BD3633-3DB7-43C3-B3B2-4B677161926A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A3D56208-6D74-4B06-9394-D047E3C47115}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{621E144B-7374-455F-8919-16E6BE85A9B2}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{79DDE8D9-1E62-4388-AEB4-8A0C8EB633D2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B07E8882-B5B9-4AF0-B7BE-49BB3EAE8A3A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9BCB3C-B3C7-452C-8269-B8D845F041AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578D5B0-F4DE-409C-ADE2-D484F076A002}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2601,18 +2601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA2433F7-0A70-47C2-85D7-878D8F52EB48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4068F0A8-A097-4B06-AB7B-042065148BE6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E6D30B9-80B0-4E12-83C7-DBC6AF24429E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68ECFA22-07B8-474A-95BC-41B011D98EA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36FF2FEE-1014-4FBD-AE60-ECCB01EE416C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D3F5A4B-938D-4FEB-97E6-3EE13DD6227F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{379924A7-6BB2-4DA3-9CE0-60D50419DF55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF2C2934-6C5A-4449-90C0-B4A02818D987}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E68F453-2356-48B4-8680-F890C90269D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3789BBAC-10FA-4AC5-93C1-10BD87166BE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E26BD41-10EC-4A16-8F67-557846943DEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AC7F7FA-9E37-419E-A7CF-5F1C7F6BF626}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2B4892D-2D0B-4876-8A1C-C915EA0AD041}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3C1BF11-9BBA-4E4D-A1C4-EEAEA1074325}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AE155DE-BBE2-44B7-8020-50BD09AA6FEC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F030326F-3C5A-4794-95D6-78C0DD4E3DCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D37B2D6-A191-43B9-B6DD-75CEBD1C5813}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB49EBAA-C6D4-414B-AA7D-1311C2DFFBDB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F6218E5-B9CB-4030-9291-D96E9606D1DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DDB84AC-D0BA-47E7-943D-66646C5F98C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEEF88F0-155D-49D9-91F4-72C2422FD882}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{826F62BB-1CB9-4DDF-8FEB-83DF83AEA3F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3808566A-A12D-485B-B7C2-54132AFBD266}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9117771-A41C-456F-B435-187CFF725B51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1494DFE-ABB0-4239-AB5F-F46C5621B19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCDA1F4-F1F9-431B-BC9D-6AF11BD1FA8A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3848,18 +3848,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1C8765D-15B9-4F88-AC39-7184048B1FB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26220332-5BA7-4C8F-93F2-79136B0C32AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C37BFD69-3B1B-4E2C-AE69-0D10FF74E9EB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67244E12-EC56-44C3-BDF1-C830BB784753}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{136C8032-CCA8-43EA-A2C7-F2709DBE052B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5081C28A-E77B-4DDE-89D6-C2CCB658F123}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{359A6477-E853-4547-BCAD-1205BC895151}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{168D8FE6-3E93-4F0A-AA32-24E0EEB7E108}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17B04AD0-9FC6-4BC2-8510-2B057C8E6FBE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54918E5B-7902-4705-BE51-07DAAF25ECD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6CD15E6-CDC1-427F-956E-A2BAF70A39E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A825D6C-B62C-4D60-9342-2DAC0BC2A752}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A76920D6-B681-4733-86BC-63539EF06D97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0BA7008-E401-4A6D-BF02-C57FBACF5AE3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2E77E8A-6FC5-4F8E-ADE4-CA873743FF67}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED64F6F1-F855-4C68-9AC0-CB5893826DDB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6316EFB7-D49F-466F-AEAF-2C1E48A7737B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D9AB07F-F285-419F-A432-697927527032}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46D047B9-B208-41D4-85A7-2E9F0C2E30CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8362B7C9-BAD8-4880-8B47-DF896EF73A5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08AE7EFF-441D-44BF-ACB3-C899C62C1ED9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8360A933-2245-4B92-B49A-2425A2C870CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8704DD8E-7610-4537-B1F7-2928DF406FBF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{486000B4-3640-419F-B0F9-27AD1F843142}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3872,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9068092-D048-45E0-80EC-443EBEB20502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026471EF-E8F9-4EBF-9C5D-BEEB14DA50E1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5095,18 +5095,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F983CC2-7586-4853-B9F5-AD00EC56B422}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9914A7E8-B2FB-49B6-8985-4A8166D99CAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75045280-3514-480A-AB90-7831F660D0A6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD90A9FB-4226-42ED-A8F9-91D892E9B2C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBDD3A7E-8FFA-4351-993B-836A56575C02}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0941FC4B-FCA6-43F8-B2EA-ED7E9E6A7ED0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E760F6D2-3D37-4065-8B35-DCC35A34CB05}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92B412E0-3C9E-4BB6-8C07-ECA1D9D07397}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF28E594-E706-4DDC-A40F-DC6A5D9F5437}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6425DD9E-E8BC-4F38-93FE-E215CE2B7AD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15A0C2E5-3C15-45BD-BD73-0F7F21925F17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E0AEA10-3A58-4D2B-8866-0F7D83245635}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10B764EE-1DF8-4F58-96AA-0298B24AB6DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{880EEDA3-C626-4BB7-A492-9BBC24B2C0C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1660168-E8ED-4E63-825F-1C1EAF144103}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE01DE5D-C2B5-4ECB-B61C-372AECB0EE31}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A07274E5-E3C6-4E31-9AD1-A8379608434C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{48C9D908-1F97-4DE9-9222-FA6C2BA34808}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CC19D2D-687C-4CA6-AF06-8415FE2D3CAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E5A085C-0F92-4452-8FE0-6FBE1C150FEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F9B2E23-46F1-4B1C-B768-3BAA30F7D76C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE2C87B9-6838-4E07-91D9-D925095FAE9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F49FFB85-A244-4EED-84FD-A7DEB6E3984B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAF3E433-AB3E-49D3-8F2D-F5B0CEBF2D80}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3B49C-E150-430B-BF27-7CF0D805E5D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55548264-015D-45C2-87D4-2C181A7ECCD3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6342,18 +6342,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CA51875-D4B8-4CF2-B5C6-CF7AEB4578C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95246991-7B92-4750-B343-3FA278C32E90}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6EEAFDA1-EF6C-4511-B959-3B33DB4DAC2A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF1BBAA3-8DA7-406B-8D03-B18F6F5CDEB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94D8B75B-5226-4A4D-9A2A-B4FF3BEADDC0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DC19ED3-9103-459F-8D8D-05779E2C0E7C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B337ECD4-2B43-4A80-BB02-8343B0FBFD35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D37F6FE2-C6D5-4280-98C9-F3A625890E0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E5E2EF2-B3EA-4646-BAFB-C66ECCCD6C81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7814FF4-04FB-458B-8D26-F087203161AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{449631B3-0CED-4BD9-BAEC-A0E520E58358}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{968363EA-4FEF-4F22-9F9C-863F52901C75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBF5C052-4D8E-47B1-ABF1-2626C846C382}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABC74B4B-35BA-4DFE-B993-6645752446F1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0ECE93D6-760A-432D-8C1E-F6C67561072E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{417B2544-8654-4955-9AD1-FA93E7110E39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12BD7CD1-2960-440A-A52A-1234A8D21EF6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{348F3B98-6DE8-4E25-AD46-0B2626852895}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84D3375E-1BD7-4829-9503-47DAB9282B75}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34788E2E-7F61-4CB2-A869-ED586006BFEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D225311-9745-460A-98BB-A6555CC02C25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B955B1CA-67AA-45F8-8CC6-3F8AB2D5FDF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D6FABC8-6BB4-4548-B1F0-2BD229D43BF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B58D0CDC-8F1D-4741-B88D-01F3B1FA415E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6366,7 +6366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7BBCB9-3226-4D79-BA0B-18F5D7A467A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9310E3-4550-40C9-89D1-9DE516151A64}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7605,18 +7605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05816A67-A60D-4CA7-8737-B2E5B057E59A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DFD9583-E361-4567-ABEB-7FEF2EFA53F0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B599027E-9B63-438D-9764-4B4D75D1EFC7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B6A81CC5-1F52-4C6D-8A88-8059CAC52C0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00BE6D5D-258B-4DC7-94AC-00D495DFEFC9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE33B8ED-71D5-4EA6-82A2-C3BA5B7C60C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16B9FCEB-6B29-4C3E-901D-FE1E58B3D0F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB3271A4-6671-4651-A42A-E3C53B1E25ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{612C5445-32C5-4290-8EFF-176B746CAF17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0516A390-AFD7-4ADD-B9A8-338D2EAB2258}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D095E24E-058E-4B47-B6F9-F65045FCA6A7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5B8989B-6BF6-438E-B1BE-42083D99BB17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE7C3F7-FBFA-483B-A831-BDCA2BBBCD6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72B750B8-C191-4743-89C2-D245CC1FCF6F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4527BD14-5F56-4EE6-BA64-F17849729F5F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{985A6DA9-598B-4D40-900C-2C22108C0439}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFE051DD-ECEC-4449-9278-F11FD251BA13}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDE888E6-DE6F-4634-8C5E-875631DC0ED3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD3DD4D7-60B3-49AE-A024-1F1660893FBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EE0B8D7-6E39-47AC-AA42-C5A032FF4B8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C5BCCE6-9FCB-4BE5-85BD-7CD440E66734}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2698DE0C-D882-4A6D-9CBF-C885CFB88707}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B1F4A17-72B2-4627-AF00-1D6621389797}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FC49C3A-4A31-4F07-8155-D9E11D391B8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7629,7 +7629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB3B6E-3D95-4A1F-8F6E-3AE914FA041F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4E4BF7-88ED-44C3-ADC8-0B0655880C1F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8868,18 +8868,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{284D56DB-EB2D-4EC9-B3DF-1D66BA0E2E0F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A97A7F8-0F20-4D2D-993D-0042DFF5456E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{727AC3A0-C318-429F-BEBD-8FFAC8CA0A5D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73BB749B-C8D1-442F-A750-EEA6D2DAF22D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E580ED6-DF7F-4700-833E-9BFE2FB15EA4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFAD4E10-DC1A-4BEC-8439-1528EE2097A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D00315D1-FCA4-4360-95DB-D79E50E8A7F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94214CB2-7902-4729-9B8B-8EF2A68D16FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{283D32AE-B1F7-48F1-B2D3-EA0191E4BB76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA1359E5-8BD1-48C6-8883-EB02EFF81DC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83BBAE9B-232E-49DE-9A8F-93CFF93703AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA279000-E997-4D41-BA04-0EF86A26A96D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DAF1455-FDE3-4B03-8B55-561A9618F4D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{680DBC49-F728-4F99-B803-5D71F9099A0A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2FFBDC7F-C742-42B5-B837-1217F4C6FCF3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BBB9294-3C2B-414A-B362-EAAC65E5EEB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DF13245-6198-4C2A-93FD-DA78D9876545}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{367D855B-492F-4062-A711-2C91C964E9D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7014B89-776A-4E8B-8643-34EAF2A23B94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6CA8279-5974-4399-B12B-8A42AAB6CF3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D7030AE-58AB-467C-B4F4-33F48ABF32EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18D35949-F4AA-4489-A105-AB10BFF702B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39259693-DAB0-4426-9B20-A0CDC90D0F9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9206177B-EF52-4607-9D8A-A0DF9BF369DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8892,7 +8892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7323733-36E4-4D4D-814C-A0397E764E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C54B4AB-9BB0-4E54-8176-86B4CB1C6587}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10127,18 +10127,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5CB3EF67-AE68-40C8-87E2-29315B2C3AD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40B11511-08D3-48A1-B0CA-319BA260FC63}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D00D0FB6-02DA-463A-8ECA-11C713B186AB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0DE346CB-E88B-4C49-B78A-FF66380CE997}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{448E3AC2-6983-4EFE-9086-B47F81DF3364}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A19E6BBE-5FDF-4F4D-B0FD-4D041CDDE528}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{704B2EB0-1294-4E04-9A02-30334DC5928B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAAB866F-1D88-4FDC-B3F4-E065F43FFC73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{258B2234-DDD0-43FD-A554-BBE68EC1E578}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99E67280-0CB6-426F-99BC-B13706AE9D14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D19BF8E-9FD9-496B-920A-E7CDB627C4A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A7BC3CB-3DE5-4B17-9C5B-D0BA41231639}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61CDCDAB-1DCC-4907-8146-FF838E04AF35}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D25F2749-AEC6-4A44-9C11-DA3BDE98E843}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72467BBF-A503-4BA3-B03B-29065E8592E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{22BC214D-8B8A-4A01-878D-82CED551B6D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58AB4126-088C-4237-9BA9-0FAE9D84C33A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F514EEF-78FB-4FD8-B334-A325B4953D29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EC8B339-74F1-467C-BD91-9465F3061580}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8EE6F5D-082A-44A6-99AE-0EB69CD024A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6F5E06A-91CE-4777-AA11-D45C738812B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7580D5F-3533-4D34-B356-DCCDC19DB091}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A85A080A-5EAF-45B7-A6E1-F471E81D10F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7507308D-A4A0-43D1-917F-E153CC64D818}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10151,7 +10151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A89EADF-326E-4E77-B1BF-99E37A70E672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3AC420-6834-4129-8AA5-572061B0189C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11386,18 +11386,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66898C08-0A6D-4D98-9F73-32EDD123ADC8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF80E56B-93A0-4EED-A778-11F96D5A5E16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C8AFD15-EEFE-4429-A100-C982D5B5B413}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A62D1C01-9372-4051-88B2-797F4D2A99DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{753BDA09-0C29-4699-BB4A-CBE04DC90AC7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A25384FF-3B65-4D5A-8DD1-80B328D70217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DB171CF-621A-4222-9C80-7597087D5E6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11A03987-E873-4DE4-9E78-2E05E929DA6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA54B398-478C-4B45-8527-7D87020F2670}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB1A51FE-B42D-4AA3-AEB8-ECE8D6EDFD08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{929F4088-7385-4B83-B78A-DBD9CC5F7437}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{127FA673-3515-4FC6-8660-E748B1DFD9D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65D6B208-F4C3-4414-836E-0B48548BC45F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0786CD1-14DE-4469-B69E-0B916CA1BFDB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF10F428-2C7B-4CF4-8261-73B489A0AD28}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57DB268B-A186-4FF2-82FC-9C2FC48E9E0F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31956ACC-DA33-4C31-93F6-35C9043B13C5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{898917EC-E318-49FF-A213-3B89DEB8A9E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B68B595-5287-490C-BE1D-042F1FCF628E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BCAA5DB-7651-45D2-9037-A459F0DE30B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46EFC0D5-B8BA-45F1-BFB1-6B169BE75D94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{926B8632-E02E-4910-9F95-7184D45F9DD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE205E1C-4EE4-4B4E-A92A-B5AFDE569A7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A917DD90-8F26-4C6F-BCA9-27481DC527A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11410,7 +11410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AB666-A717-4904-8C3C-8E81D0F58815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A461CF5-5F3C-41AA-8C68-F8CECFD3777F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12645,18 +12645,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80D65EE1-E313-4A57-8EEB-98D94E8C804D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7536CA49-6E67-4F5F-A28B-C518BE248332}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4ABA36B-E7F5-454F-8C9F-4AECD1714006}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1423AF3-918C-4A24-A097-C07D8A5A9B2E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F69E92A0-ED38-4630-9774-D89E9759D7BD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{279509F3-7664-41EC-BBBA-3CAD6908FAA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D191C277-8208-437F-BF24-B76D74699800}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34F7D920-8269-46C2-B3E6-ACCA5A58F1E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64D70C3A-5C9C-458B-9CC4-587777A3953E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77B133DC-CA99-4DC3-B24C-79626B143CC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{669595B6-FBDC-4BF2-8A50-6EA9CADBBBDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C56CBFB4-2F6A-4D68-8A58-60310E67F9C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31A042F4-B76F-4AB7-ACE6-F3C2AF31822F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7C926F4-A485-4B90-9CC8-9F4C67D6799D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D96407B9-AE13-471F-A5FF-E1FB58E8005F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54C407E6-B38D-4AD2-A2B4-0D77C7D5652F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{88E05DB0-D108-426F-8D9C-58F92F9255EB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DCFBE180-BC5B-4D2C-992E-DBEE1DB416AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFCC6807-C147-4B38-B889-03A8771F5001}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD2A421F-0795-4C2F-81BE-19A348C0298F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58D2E417-4123-48FF-80FD-059F1F6666A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86A00650-9F7B-4FCD-B0B3-94C951EDAFF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D74E89A-EA8B-49C3-9892-938D5566202F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E87A2041-AA58-46AA-A9C6-016D424484A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12669,7 +12669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD6CEBC-1EB2-4253-8D7C-E22DBC3D9477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815000B-10DD-4BB9-9683-AC1C4EEBF9B9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13904,18 +13904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46770BE7-24EC-428C-AE97-0F87790C4FCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3B665B6-A4B1-44BB-822D-146A5CF504D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DF24665-0937-408B-86CF-113C488B84CC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F71E69F4-FF77-4E66-88F2-D0CD7D7186F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D97169BC-1056-4F5B-B72B-51731B13FE7A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F90E1DF5-EA9D-490A-BB16-488231196967}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F567014B-4832-4F3C-B699-D39DC1D3BD0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{425A6DEB-0115-4E2F-AE76-F23A8E3F79CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC985132-C458-49E7-90B1-DFCDB231C335}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4203E541-FA5D-408B-B2E7-3A2B8C2A25DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BDA40BA-63CB-4D21-A898-129BA6697749}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FD94A42-8BB4-4372-969A-7ED0F5384F5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C444952-6DCB-4A8D-AA1E-23C8EB616D35}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E8B733D-C44E-46AA-B6E3-04594AAB6758}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EDC0FDD-D8C1-4635-9B05-DF2C60D495E6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58E8F93F-7AF5-4256-A0B9-70FB8BE509B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEAAD327-FC70-463D-BFBE-61BB0D5F4C5E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8276FFCE-46FB-4859-884E-00DBBD6E539D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5524987-86F9-4832-9F1C-1E9D735ABDC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BCA7672-7D52-4827-9E4B-BBF1E433A36E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A0EA4E1-DB35-4599-81EF-FFBCABC75026}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8891B8A-71DF-407D-A2C1-181193FEC2EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84B0A83A-2AC3-48C0-8B70-72EF664FC05C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AA0C4FC-90F5-48F2-9575-04FE5538068C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13928,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0157888-9150-45FE-B5A9-31F4F22D549A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C7EE3C-5632-4621-958E-3B1AA6AFFCC5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15163,18 +15163,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF066A4A-9032-40C6-9218-8C401D3B6613}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DB212C2-3048-4D20-93E3-F6AD06994756}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE5C75AD-0DB6-4A6C-99C9-355D47EA5763}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B956997-5960-4EA3-864F-33149B81B68B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA07905B-C469-49E8-9DF2-74948D81A422}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B73CB2E-ED86-4504-BA1C-A4193B260A25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7F21ABA-3653-4516-8BE8-4349A172CFB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D201F216-4390-4633-A341-E4FB3CDED9B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89C5CEEB-2411-4708-A142-96BCFEC79041}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECABDB5F-A5B6-4D8E-A4A8-7E460C2952C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30EE2B09-FB4E-4B3D-8253-D0AE5F235874}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8932B3DB-F21B-4032-8FAD-9ED54AB16CC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDE11BF3-FBE6-4FE8-AB06-D2D797E92BDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B86EA54-EC53-45FF-954B-AA05C4AAC776}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{428D5944-302A-485A-A904-8B3604DE9BBF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FDFDDE6C-1AE0-495B-9870-4D1FE27EA011}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68F67DA2-612D-4358-AB3D-E32FDA39172C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{908BB695-0F07-43C6-B7A3-1591CEB8117F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{042CCC6F-BDF7-4B33-AD22-30EAA6DC36B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F230E15E-8B0C-4910-B479-E2F733FC38DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{113AA073-B794-48F8-804C-4621A5788F10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{041AA7ED-A432-456F-8123-B6A9B1C42456}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDDC8EC4-06FD-4F72-B2E3-012F2EE2623B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E648754-F016-4B19-8C22-98C5CA4F5B56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15187,7 +15187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAEB616-0BC5-4FB9-951A-9580601C2CDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20090B64-C256-4C45-A1FB-9A01B293B13F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16410,18 +16410,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D09C5D2-65F9-4E12-BB3F-ED795918F3A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27595B6A-CBFC-47FB-9F63-701AC6784E0D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF10C1E5-CA02-4937-9434-D6A1FAED704B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5AA60774-FF3E-42BA-B23D-12C020FE53BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0F99C32-F7F5-4889-869D-E4FE452DA286}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{079B633C-FB10-4C8E-89D7-7851D4873F86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43653FFD-9E5F-4692-8507-41BEAA98DC28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{770DAB67-66CB-4F79-8F6D-4C2820D8D7BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6950C91-1605-45F5-8C3B-A7606381CAC1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{455EA324-1067-4919-9898-8D8DF943795F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5494B4A1-00B1-4F17-BD02-B39DF731A35D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62AF51C3-ED02-486E-89C6-80ADE0CDED90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48B0C17E-05E4-448A-9FDE-5E94F3E90AF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5999A35C-4CAD-49A9-9B6A-CB004A3937AE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7BDC22B-C73D-4A65-B09A-DB3DFF1FE9CB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DECDE98C-38B0-4BCE-98E9-2F8A5DFD9E02}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C30ACCE3-2A34-4A1E-B613-162C1CB867E4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E64BB2B6-DFD6-47AB-9E7D-AC892C19929A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D91BB778-B3AE-4B68-81DF-2453D31E16FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA919DA5-F587-48BE-894C-E1C695AC9A3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3537F43-714E-47C4-A47E-47DEF0A26F83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECACEB4F-3EDA-4AA2-87BF-9F471FCBE18F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBE4A4F1-2877-46FB-9216-E5BE82726736}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C6FA23D-0371-41FD-95F6-B20A32C8F390}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
